--- a/Programms/Программы для ПК/Windows/Консольные программы/Новая папка/123.xlsx
+++ b/Programms/Программы для ПК/Windows/Консольные программы/Новая папка/123.xlsx
@@ -411,7 +411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,84 +436,420 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>ttt</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>xx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>yy</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>ttt</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>xx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>yy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>ttt</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>xx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>yy</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>ttt</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>xx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>testrr</t>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>yy</t>
         </is>
       </c>
     </row>
